--- a/medicine/Enfance/Praline_Gay-Para/Praline_Gay-Para.xlsx
+++ b/medicine/Enfance/Praline_Gay-Para/Praline_Gay-Para.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Praline Gay-Para est une conteuse, auteure, comédienne et traductrice née au Liban en 1956[1],[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Praline Gay-Para est une conteuse, auteure, comédienne et traductrice née au Liban en 1956.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a suivi des études d'ethnolinguistique. Elle est titulaire d'une thèse de doctorat, soutenue en 1985 à Paris III : Contes de la montagne libanaise. Cette thèse s'est appuyée sur un collectage de contes libanais entre les années 1979 et 1983. Depuis plus de vingt ans, elle mène une réflexion théorique sur l’oralité et sur les récits contemporains urbains : récits de vie, faits divers, rumeurs, etc.
 </t>
@@ -542,9 +556,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1981, elle collecte et écrit livres et spectacles autour du conte, de l'oralité. Elle a bénéficié de plusieurs résidences artistiques (La Maison du Conte, Carré, scène nationale de Château-Gontier[6], Ferme de Bel Ébat à Guyancourt). Elle a écrit plus de 60 livres[7]. Elle est chargée de l’atelier petite enfance, en partenariat avec la médiathèque Boris Vian et la ville de Chevilly-Larue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1981, elle collecte et écrit livres et spectacles autour du conte, de l'oralité. Elle a bénéficié de plusieurs résidences artistiques (La Maison du Conte, Carré, scène nationale de Château-Gontier, Ferme de Bel Ébat à Guyancourt). Elle a écrit plus de 60 livres. Elle est chargée de l’atelier petite enfance, en partenariat avec la médiathèque Boris Vian et la ville de Chevilly-Larue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Création de spectacles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pourquoi je ne suis pas née en Finlande, 2011[8],[9]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pourquoi je ne suis pas née en Finlande, 2011,
 Par ici…, récits de la Mayenne, 2010
 Caravane, récits ambulants, 2007
 Récits de mon île, 2005
@@ -611,7 +629,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Contes pour jeunes filles intrépides - Des quatre coins du monde, Babel, 2020
 Pevar mignon e-touez an erc'h, Andrée Prigent (illustrations), Mark Kerrain (traduction en breton), Sav-Heol, 2018
